--- a/output/1Y_P38_KFSDIV.xlsx
+++ b/output/1Y_P38_KFSDIV.xlsx
@@ -727,16 +727,16 @@
         <v>15.3636</v>
       </c>
       <c r="C2" s="1">
-        <v>15.3636</v>
+        <v>15.3329</v>
       </c>
       <c r="D2" s="1">
-        <v>15.3636</v>
+        <v>15.3944</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>650.8891</v>
+        <v>649.5869</v>
       </c>
       <c r="H2" s="1">
         <v>0</v>
@@ -771,31 +771,31 @@
         <v>13.8711</v>
       </c>
       <c r="C3" s="1">
-        <v>13.8711</v>
+        <v>13.8434</v>
       </c>
       <c r="D3" s="1">
-        <v>13.8711</v>
+        <v>13.8989</v>
       </c>
       <c r="E3" s="1">
-        <v>650.8891</v>
+        <v>649.5869</v>
       </c>
       <c r="F3" s="1">
-        <v>720.9234</v>
+        <v>719.4814</v>
       </c>
       <c r="H3" s="1">
-        <v>9028.548000000001</v>
+        <v>8992.4908</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>9028.548000000001</v>
+        <v>8992.4908</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>15.3636</v>
+        <v>15.3944</v>
       </c>
       <c r="M3" s="1">
         <v>0.5</v>
@@ -810,7 +810,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.09710000000000001</v>
+        <v>-0.1008</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -821,31 +821,31 @@
         <v>14.1252</v>
       </c>
       <c r="C4" s="1">
-        <v>14.1252</v>
+        <v>14.097</v>
       </c>
       <c r="D4" s="1">
-        <v>14.1252</v>
+        <v>14.1535</v>
       </c>
       <c r="E4" s="1">
-        <v>1371.8125</v>
+        <v>1369.0683</v>
       </c>
       <c r="F4" s="1">
-        <v>707.9546</v>
+        <v>706.539</v>
       </c>
       <c r="H4" s="1">
-        <v>19377.1255</v>
+        <v>19299.7553</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>19377.1255</v>
+        <v>19299.7553</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>14.5793</v>
+        <v>14.6085</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -860,7 +860,7 @@
         <v>-10000</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0183</v>
+        <v>0.0162</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -871,31 +871,31 @@
         <v>14.1934</v>
       </c>
       <c r="C5" s="1">
-        <v>14.1934</v>
+        <v>14.165</v>
       </c>
       <c r="D5" s="1">
-        <v>14.1934</v>
+        <v>14.2218</v>
       </c>
       <c r="E5" s="1">
-        <v>2079.7671</v>
+        <v>2075.6073</v>
       </c>
       <c r="F5" s="1">
-        <v>704.5528</v>
+        <v>703.1459</v>
       </c>
       <c r="H5" s="1">
-        <v>29518.9657</v>
+        <v>29400.9771</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>29518.9657</v>
+        <v>29400.9771</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>14.4247</v>
+        <v>14.4536</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -910,7 +910,7 @@
         <v>-10000</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0048</v>
+        <v>0.0035</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -921,46 +921,46 @@
         <v>14.1176</v>
       </c>
       <c r="C6" s="1">
-        <v>14.1176</v>
+        <v>14.0894</v>
       </c>
       <c r="D6" s="1">
-        <v>14.1176</v>
+        <v>14.1459</v>
       </c>
       <c r="E6" s="1">
-        <v>2784.3199</v>
+        <v>2778.7532</v>
       </c>
       <c r="F6" s="1">
-        <v>708.3357</v>
+        <v>706.9186</v>
       </c>
       <c r="H6" s="1">
-        <v>39307.9142</v>
+        <v>39150.9647</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>39307.9142</v>
+        <v>39150.9647</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>14.3662</v>
+        <v>14.3949</v>
       </c>
       <c r="M6" s="1">
         <v>0.5</v>
       </c>
       <c r="N6" s="1">
-        <v>935.8952</v>
+        <v>934.0232999999999</v>
       </c>
       <c r="O6" s="1">
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-9064.104799999999</v>
+        <v>-9065.976699999999</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.0053</v>
+        <v>-0.0063</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -971,31 +971,31 @@
         <v>15.3311</v>
       </c>
       <c r="C7" s="1">
-        <v>15.3311</v>
+        <v>15.3004</v>
       </c>
       <c r="D7" s="1">
-        <v>15.3311</v>
+        <v>15.3618</v>
       </c>
       <c r="E7" s="1">
-        <v>3492.6556</v>
+        <v>3485.6718</v>
       </c>
       <c r="F7" s="1">
-        <v>660.9897</v>
+        <v>659.6513</v>
       </c>
       <c r="H7" s="1">
-        <v>53546.2517</v>
+        <v>53332.1723</v>
       </c>
       <c r="I7" s="1">
-        <v>935.8952</v>
+        <v>934.0232999999999</v>
       </c>
       <c r="J7" s="1">
-        <v>54482.1469</v>
+        <v>54266.1956</v>
       </c>
       <c r="K7" s="1">
         <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>14.3158</v>
+        <v>14.3444</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -1007,10 +1007,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-10133.6993</v>
+        <v>-10133.4319</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.1049</v>
+        <v>0.1041</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1021,31 +1021,31 @@
         <v>15.3637</v>
       </c>
       <c r="C8" s="1">
-        <v>15.3637</v>
+        <v>15.333</v>
       </c>
       <c r="D8" s="1">
-        <v>15.3637</v>
+        <v>15.3945</v>
       </c>
       <c r="E8" s="1">
-        <v>4153.6453</v>
+        <v>4145.3231</v>
       </c>
       <c r="F8" s="1">
-        <v>659.5872000000001</v>
+        <v>658.2501</v>
       </c>
       <c r="H8" s="1">
-        <v>63815.3599</v>
+        <v>63560.2391</v>
       </c>
       <c r="I8" s="1">
-        <v>802.1959000000001</v>
+        <v>800.5914</v>
       </c>
       <c r="J8" s="1">
-        <v>64617.5558</v>
+        <v>64360.8305</v>
       </c>
       <c r="K8" s="1">
-        <v>60133.6993</v>
+        <v>60133.4319</v>
       </c>
       <c r="L8" s="1">
-        <v>14.4773</v>
+        <v>14.5063</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -1057,10 +1057,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-10133.6993</v>
+        <v>-10133.4319</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0021</v>
+        <v>0.0015</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1071,46 +1071,46 @@
         <v>14.6447</v>
       </c>
       <c r="C9" s="1">
-        <v>14.6447</v>
+        <v>14.6154</v>
       </c>
       <c r="D9" s="1">
-        <v>14.6447</v>
+        <v>14.674</v>
       </c>
       <c r="E9" s="1">
-        <v>4813.2324</v>
+        <v>4803.5733</v>
       </c>
       <c r="F9" s="1">
-        <v>691.9704</v>
+        <v>690.5705</v>
       </c>
       <c r="H9" s="1">
-        <v>70488.34510000001</v>
+        <v>70206.14449999999</v>
       </c>
       <c r="I9" s="1">
-        <v>668.4965999999999</v>
+        <v>667.1595</v>
       </c>
       <c r="J9" s="1">
-        <v>71156.8416</v>
+        <v>70873.304</v>
       </c>
       <c r="K9" s="1">
-        <v>70267.3986</v>
+        <v>70266.86380000001</v>
       </c>
       <c r="L9" s="1">
-        <v>14.5988</v>
+        <v>14.628</v>
       </c>
       <c r="M9" s="1">
         <v>1</v>
       </c>
       <c r="N9" s="1">
-        <v>3738.2807</v>
+        <v>3730.7908</v>
       </c>
       <c r="O9" s="1">
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-6395.4186</v>
+        <v>-6402.6411</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0464</v>
+        <v>-0.0469</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1121,31 +1121,31 @@
         <v>15.486</v>
       </c>
       <c r="C10" s="1">
-        <v>15.486</v>
+        <v>15.455</v>
       </c>
       <c r="D10" s="1">
-        <v>15.486</v>
+        <v>15.517</v>
       </c>
       <c r="E10" s="1">
-        <v>5505.2029</v>
+        <v>5494.1438</v>
       </c>
       <c r="F10" s="1">
-        <v>714.7275</v>
+        <v>713.1617</v>
       </c>
       <c r="H10" s="1">
-        <v>85253.5716</v>
+        <v>84911.9921</v>
       </c>
       <c r="I10" s="1">
-        <v>4273.078</v>
+        <v>4264.5184</v>
       </c>
       <c r="J10" s="1">
-        <v>89526.6495</v>
+        <v>89176.5104</v>
       </c>
       <c r="K10" s="1">
-        <v>80401.09789999999</v>
+        <v>80400.2957</v>
       </c>
       <c r="L10" s="1">
-        <v>14.6046</v>
+        <v>14.6338</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -1157,10 +1157,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-11068.2695</v>
+        <v>-11066.1296</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.1031</v>
+        <v>0.1027</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1171,31 +1171,31 @@
         <v>16.1958</v>
       </c>
       <c r="C11" s="1">
-        <v>16.1957</v>
+        <v>16.1634</v>
       </c>
       <c r="D11" s="1">
-        <v>16.1958</v>
+        <v>16.2282</v>
       </c>
       <c r="E11" s="1">
-        <v>6219.9303</v>
+        <v>6207.3054</v>
       </c>
       <c r="F11" s="1">
-        <v>683.4037</v>
+        <v>681.9074000000001</v>
       </c>
       <c r="H11" s="1">
-        <v>100736.1256</v>
+        <v>100331.1608</v>
       </c>
       <c r="I11" s="1">
-        <v>3204.8085</v>
+        <v>3198.3888</v>
       </c>
       <c r="J11" s="1">
-        <v>103940.9341</v>
+        <v>103529.5496</v>
       </c>
       <c r="K11" s="1">
-        <v>91469.3674</v>
+        <v>91466.4253</v>
       </c>
       <c r="L11" s="1">
-        <v>14.7059</v>
+        <v>14.7353</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -1207,10 +1207,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-11068.2695</v>
+        <v>-11066.1296</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0444</v>
+        <v>0.0439</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1221,46 +1221,46 @@
         <v>16.4264</v>
       </c>
       <c r="C12" s="1">
-        <v>16.4264</v>
+        <v>16.3936</v>
       </c>
       <c r="D12" s="1">
-        <v>16.4264</v>
+        <v>16.4593</v>
       </c>
       <c r="E12" s="1">
-        <v>6903.334</v>
+        <v>6889.2128</v>
       </c>
       <c r="F12" s="1">
-        <v>673.8098</v>
+        <v>672.3329</v>
       </c>
       <c r="H12" s="1">
-        <v>113396.9259</v>
+        <v>112938.9996</v>
       </c>
       <c r="I12" s="1">
-        <v>2136.539</v>
+        <v>2132.2592</v>
       </c>
       <c r="J12" s="1">
-        <v>115533.4649</v>
+        <v>115071.2588</v>
       </c>
       <c r="K12" s="1">
-        <v>102537.6369</v>
+        <v>102532.5549</v>
       </c>
       <c r="L12" s="1">
-        <v>14.8534</v>
+        <v>14.8831</v>
       </c>
       <c r="M12" s="1">
         <v>0.75</v>
       </c>
       <c r="N12" s="1">
-        <v>4198.453</v>
+        <v>4189.9312</v>
       </c>
       <c r="O12" s="1">
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-6869.8165</v>
+        <v>-6876.1984</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.014</v>
+        <v>0.0136</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1271,31 +1271,31 @@
         <v>17.107</v>
       </c>
       <c r="C13" s="1">
-        <v>17.107</v>
+        <v>17.0728</v>
       </c>
       <c r="D13" s="1">
-        <v>17.107</v>
+        <v>17.1413</v>
       </c>
       <c r="E13" s="1">
-        <v>7577.1438</v>
+        <v>7561.5458</v>
       </c>
       <c r="F13" s="1">
-        <v>892.4255000000001</v>
+        <v>890.0177</v>
       </c>
       <c r="H13" s="1">
-        <v>129622.1995</v>
+        <v>129096.7588</v>
       </c>
       <c r="I13" s="1">
-        <v>5266.7225</v>
+        <v>5256.0608</v>
       </c>
       <c r="J13" s="1">
-        <v>134888.922</v>
+        <v>134352.8196</v>
       </c>
       <c r="K13" s="1">
-        <v>113605.9064</v>
+        <v>113598.6845</v>
       </c>
       <c r="L13" s="1">
-        <v>14.9932</v>
+        <v>15.0232</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -1307,10 +1307,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-15266.7225</v>
+        <v>-15256.0608</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0745</v>
+        <v>0.0742</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1321,46 +1321,46 @@
         <v>16.8894</v>
       </c>
       <c r="C14" s="1">
-        <v>16.8893</v>
+        <v>16.8556</v>
       </c>
       <c r="D14" s="1">
-        <v>16.8894</v>
+        <v>16.9232</v>
       </c>
       <c r="E14" s="1">
-        <v>8469.569299999999</v>
+        <v>8451.5635</v>
       </c>
       <c r="F14" s="1">
-        <v>-8469.569299999999</v>
+        <v>-8451.5635</v>
       </c>
       <c r="H14" s="1">
-        <v>143045.0967</v>
+        <v>142456.1738</v>
       </c>
       <c r="I14" s="1">
         <v>-0</v>
       </c>
       <c r="J14" s="1">
-        <v>143045.0967</v>
+        <v>142456.1738</v>
       </c>
       <c r="K14" s="1">
-        <v>128872.6289</v>
+        <v>128854.7452</v>
       </c>
       <c r="L14" s="1">
-        <v>15.216</v>
+        <v>15.2463</v>
       </c>
       <c r="M14" s="1">
         <v>1</v>
       </c>
       <c r="N14" s="1">
-        <v>6819.4294</v>
+        <v>6805.3912</v>
       </c>
       <c r="O14" s="1">
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>149864.5262</v>
+        <v>149261.565</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0127</v>
+        <v>-0.0131</v>
       </c>
     </row>
   </sheetData>
@@ -1386,7 +1386,7 @@
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
     <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
     <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
     <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
     <col min="13" max="13" width="6.7109375" style="1" customWidth="1"/>
     <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
@@ -1456,16 +1456,16 @@
         <v>15.3636</v>
       </c>
       <c r="C2" s="1">
-        <v>15.3636</v>
+        <v>15.3329</v>
       </c>
       <c r="D2" s="1">
-        <v>15.3636</v>
+        <v>15.3944</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>650.8891</v>
+        <v>649.5869</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -1503,34 +1503,34 @@
         <v>13.8711</v>
       </c>
       <c r="C3" s="1">
-        <v>13.8711</v>
+        <v>13.8434</v>
       </c>
       <c r="D3" s="1">
-        <v>13.8711</v>
+        <v>13.8989</v>
       </c>
       <c r="E3" s="1">
-        <v>650.8891</v>
+        <v>649.5869</v>
       </c>
       <c r="F3" s="1">
-        <v>720.9234</v>
+        <v>719.4814</v>
       </c>
       <c r="G3" s="1">
         <v>20000</v>
       </c>
       <c r="H3" s="1">
-        <v>9028.548000000001</v>
+        <v>8992.4908</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>9028.548000000001</v>
+        <v>8992.4908</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>15.3636</v>
+        <v>15.3944</v>
       </c>
       <c r="M3" s="1">
         <v>0.5</v>
@@ -1545,7 +1545,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.09710000000000001</v>
+        <v>-0.1008</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1556,34 +1556,34 @@
         <v>14.1252</v>
       </c>
       <c r="C4" s="1">
-        <v>14.1252</v>
+        <v>14.097</v>
       </c>
       <c r="D4" s="1">
-        <v>14.1252</v>
+        <v>14.1535</v>
       </c>
       <c r="E4" s="1">
-        <v>1371.8125</v>
+        <v>1369.0683</v>
       </c>
       <c r="F4" s="1">
-        <v>707.9546</v>
+        <v>706.539</v>
       </c>
       <c r="G4" s="1">
         <v>30000</v>
       </c>
       <c r="H4" s="1">
-        <v>19377.1255</v>
+        <v>19299.7553</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>19377.1255</v>
+        <v>19299.7553</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>14.5793</v>
+        <v>14.6085</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -1598,7 +1598,7 @@
         <v>-10000</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0183</v>
+        <v>0.0162</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1609,34 +1609,34 @@
         <v>14.1934</v>
       </c>
       <c r="C5" s="1">
-        <v>14.1934</v>
+        <v>14.165</v>
       </c>
       <c r="D5" s="1">
-        <v>14.1934</v>
+        <v>14.2218</v>
       </c>
       <c r="E5" s="1">
-        <v>2079.7671</v>
+        <v>2075.6073</v>
       </c>
       <c r="F5" s="1">
-        <v>704.5528</v>
+        <v>703.1459</v>
       </c>
       <c r="G5" s="1">
         <v>40000</v>
       </c>
       <c r="H5" s="1">
-        <v>29518.9657</v>
+        <v>29400.9771</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>29518.9657</v>
+        <v>29400.9771</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>14.4247</v>
+        <v>14.4536</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -1651,7 +1651,7 @@
         <v>-10000</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0048</v>
+        <v>0.0035</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1662,49 +1662,49 @@
         <v>14.1176</v>
       </c>
       <c r="C6" s="1">
-        <v>14.1176</v>
+        <v>14.0894</v>
       </c>
       <c r="D6" s="1">
-        <v>14.1176</v>
+        <v>14.1459</v>
       </c>
       <c r="E6" s="1">
-        <v>2784.3199</v>
+        <v>2778.7532</v>
       </c>
       <c r="F6" s="1">
-        <v>708.3357</v>
+        <v>706.9186</v>
       </c>
       <c r="G6" s="1">
         <v>50000</v>
       </c>
       <c r="H6" s="1">
-        <v>39307.9142</v>
+        <v>39150.9647</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>39307.9142</v>
+        <v>39150.9647</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>14.3662</v>
+        <v>14.3949</v>
       </c>
       <c r="M6" s="1">
         <v>0.5</v>
       </c>
       <c r="N6" s="1">
-        <v>935.8952</v>
+        <v>934.0232999999999</v>
       </c>
       <c r="O6" s="1">
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-9064.104799999999</v>
+        <v>-9065.976699999999</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.0053</v>
+        <v>-0.0063</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1715,34 +1715,34 @@
         <v>15.3311</v>
       </c>
       <c r="C7" s="1">
-        <v>15.3311</v>
+        <v>15.3004</v>
       </c>
       <c r="D7" s="1">
-        <v>15.3311</v>
+        <v>15.3618</v>
       </c>
       <c r="E7" s="1">
-        <v>3492.6556</v>
+        <v>3485.6718</v>
       </c>
       <c r="F7" s="1">
-        <v>420.9579</v>
+        <v>435.7943</v>
       </c>
       <c r="G7" s="1">
         <v>60000</v>
       </c>
       <c r="H7" s="1">
-        <v>53546.2517</v>
+        <v>53332.1723</v>
       </c>
       <c r="I7" s="1">
-        <v>935.8952</v>
+        <v>934.0232999999999</v>
       </c>
       <c r="J7" s="1">
-        <v>54482.1469</v>
+        <v>54266.1956</v>
       </c>
       <c r="K7" s="1">
         <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>14.3158</v>
+        <v>14.3444</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -1754,10 +1754,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-6453.7483</v>
+        <v>-6694.5855</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.1049</v>
+        <v>0.1041</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1768,34 +1768,34 @@
         <v>15.3637</v>
       </c>
       <c r="C8" s="1">
-        <v>15.3637</v>
+        <v>15.333</v>
       </c>
       <c r="D8" s="1">
-        <v>15.3637</v>
+        <v>15.3945</v>
       </c>
       <c r="E8" s="1">
-        <v>3913.6135</v>
+        <v>3921.4661</v>
       </c>
       <c r="F8" s="1">
-        <v>642.5806</v>
+        <v>643.8505</v>
       </c>
       <c r="G8" s="1">
         <v>70000</v>
       </c>
       <c r="H8" s="1">
-        <v>60127.5838</v>
+        <v>60127.8398</v>
       </c>
       <c r="I8" s="1">
-        <v>4482.1469</v>
+        <v>4239.4378</v>
       </c>
       <c r="J8" s="1">
-        <v>64609.7307</v>
+        <v>64367.2776</v>
       </c>
       <c r="K8" s="1">
-        <v>56453.7483</v>
+        <v>56694.5855</v>
       </c>
       <c r="L8" s="1">
-        <v>14.425</v>
+        <v>14.4575</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -1807,10 +1807,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-9872.4162</v>
+        <v>-9911.757</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.002</v>
+        <v>0.0016</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1821,49 +1821,49 @@
         <v>14.6447</v>
       </c>
       <c r="C9" s="1">
-        <v>14.6447</v>
+        <v>14.6154</v>
       </c>
       <c r="D9" s="1">
-        <v>14.6447</v>
+        <v>14.674</v>
       </c>
       <c r="E9" s="1">
-        <v>4556.1941</v>
+        <v>4565.3166</v>
       </c>
       <c r="F9" s="1">
-        <v>906.533</v>
+        <v>908.3618</v>
       </c>
       <c r="G9" s="1">
         <v>80000</v>
       </c>
       <c r="H9" s="1">
-        <v>66724.09639999999</v>
+        <v>66723.92879999999</v>
       </c>
       <c r="I9" s="1">
-        <v>4609.7307</v>
+        <v>4327.6808</v>
       </c>
       <c r="J9" s="1">
-        <v>71333.82709999999</v>
+        <v>71051.6096</v>
       </c>
       <c r="K9" s="1">
-        <v>66326.1645</v>
+        <v>66606.3425</v>
       </c>
       <c r="L9" s="1">
-        <v>14.5574</v>
+        <v>14.5896</v>
       </c>
       <c r="M9" s="1">
         <v>1</v>
       </c>
       <c r="N9" s="1">
-        <v>3522.2522</v>
+        <v>3529.3195</v>
       </c>
       <c r="O9" s="1">
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-9753.651400000001</v>
+        <v>-9799.9817</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0439</v>
+        <v>-0.0446</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1874,34 +1874,34 @@
         <v>15.486</v>
       </c>
       <c r="C10" s="1">
-        <v>15.486</v>
+        <v>15.455</v>
       </c>
       <c r="D10" s="1">
-        <v>15.486</v>
+        <v>15.517</v>
       </c>
       <c r="E10" s="1">
-        <v>5462.7271</v>
+        <v>5473.6784</v>
       </c>
       <c r="F10" s="1">
-        <v>348.9738</v>
+        <v>349.6797</v>
       </c>
       <c r="G10" s="1">
         <v>90000</v>
       </c>
       <c r="H10" s="1">
-        <v>84595.7923</v>
+        <v>84595.7004</v>
       </c>
       <c r="I10" s="1">
-        <v>4856.0793</v>
+        <v>4527.6991</v>
       </c>
       <c r="J10" s="1">
-        <v>89451.8716</v>
+        <v>89123.3995</v>
       </c>
       <c r="K10" s="1">
-        <v>79602.068</v>
+        <v>79935.6437</v>
       </c>
       <c r="L10" s="1">
-        <v>14.5719</v>
+        <v>14.6036</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -1913,10 +1913,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-5404.2077</v>
+        <v>-5425.9797</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0998</v>
+        <v>0.09959999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1927,34 +1927,34 @@
         <v>16.1958</v>
       </c>
       <c r="C11" s="1">
-        <v>16.1957</v>
+        <v>16.1634</v>
       </c>
       <c r="D11" s="1">
-        <v>16.1958</v>
+        <v>16.2282</v>
       </c>
       <c r="E11" s="1">
-        <v>5811.7009</v>
+        <v>5823.3581</v>
       </c>
       <c r="F11" s="1">
-        <v>362.7775</v>
+        <v>363.459</v>
       </c>
       <c r="G11" s="1">
         <v>100000</v>
       </c>
       <c r="H11" s="1">
-        <v>94124.5641</v>
+        <v>94125.2669</v>
       </c>
       <c r="I11" s="1">
-        <v>9451.8716</v>
+        <v>9101.719300000001</v>
       </c>
       <c r="J11" s="1">
-        <v>103576.4357</v>
+        <v>103226.9862</v>
       </c>
       <c r="K11" s="1">
-        <v>85006.2757</v>
+        <v>85361.6234</v>
       </c>
       <c r="L11" s="1">
-        <v>14.6267</v>
+        <v>14.6585</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -1966,10 +1966,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-5875.4722</v>
+        <v>-5898.2852</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0415</v>
+        <v>0.0414</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1980,49 +1980,49 @@
         <v>16.4264</v>
       </c>
       <c r="C12" s="1">
-        <v>16.4264</v>
+        <v>16.3936</v>
       </c>
       <c r="D12" s="1">
-        <v>16.4264</v>
+        <v>16.4593</v>
       </c>
       <c r="E12" s="1">
-        <v>6174.4784</v>
+        <v>6186.8171</v>
       </c>
       <c r="F12" s="1">
-        <v>522.0589</v>
+        <v>523.1185</v>
       </c>
       <c r="G12" s="1">
         <v>110000</v>
       </c>
       <c r="H12" s="1">
-        <v>101424.4522</v>
+        <v>101424.2053</v>
       </c>
       <c r="I12" s="1">
-        <v>13576.3995</v>
+        <v>13203.4341</v>
       </c>
       <c r="J12" s="1">
-        <v>115000.8516</v>
+        <v>114627.6394</v>
       </c>
       <c r="K12" s="1">
-        <v>90881.7479</v>
+        <v>91259.9087</v>
       </c>
       <c r="L12" s="1">
-        <v>14.7189</v>
+        <v>14.7507</v>
       </c>
       <c r="M12" s="1">
         <v>0.75</v>
       </c>
       <c r="N12" s="1">
-        <v>3922.8981</v>
+        <v>3930.7667</v>
       </c>
       <c r="O12" s="1">
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-4652.6497</v>
+        <v>-4679.3968</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0125</v>
+        <v>0.0124</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2033,34 +2033,34 @@
         <v>17.107</v>
       </c>
       <c r="C13" s="1">
-        <v>17.107</v>
+        <v>17.0728</v>
       </c>
       <c r="D13" s="1">
-        <v>17.107</v>
+        <v>17.1413</v>
       </c>
       <c r="E13" s="1">
-        <v>6696.5373</v>
+        <v>6709.9356</v>
       </c>
       <c r="F13" s="1">
-        <v>318.1351</v>
+        <v>318.7885</v>
       </c>
       <c r="G13" s="1">
         <v>120000</v>
       </c>
       <c r="H13" s="1">
-        <v>114557.6633</v>
+        <v>114557.3882</v>
       </c>
       <c r="I13" s="1">
-        <v>18923.7497</v>
+        <v>18524.0373</v>
       </c>
       <c r="J13" s="1">
-        <v>133481.413</v>
+        <v>133081.4255</v>
       </c>
       <c r="K13" s="1">
-        <v>99457.2957</v>
+        <v>99870.0722</v>
       </c>
       <c r="L13" s="1">
-        <v>14.852</v>
+        <v>14.8839</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -2072,7 +2072,7 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-5442.3367</v>
+        <v>-5464.4488</v>
       </c>
       <c r="Q13" s="3">
         <v>0.0678</v>
@@ -2086,49 +2086,49 @@
         <v>16.8894</v>
       </c>
       <c r="C14" s="1">
-        <v>16.8893</v>
+        <v>16.8556</v>
       </c>
       <c r="D14" s="1">
-        <v>16.8894</v>
+        <v>16.9232</v>
       </c>
       <c r="E14" s="1">
-        <v>7014.6724</v>
+        <v>7028.7241</v>
       </c>
       <c r="F14" s="1">
-        <v>-7014.6724</v>
+        <v>-7028.7241</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>118472.9058</v>
+        <v>118473.3611</v>
       </c>
       <c r="I14" s="1">
-        <v>23481.413</v>
+        <v>23059.5885</v>
       </c>
       <c r="J14" s="1">
-        <v>141954.3188</v>
+        <v>141532.9496</v>
       </c>
       <c r="K14" s="1">
-        <v>104899.6324</v>
+        <v>105334.521</v>
       </c>
       <c r="L14" s="1">
-        <v>14.9543</v>
+        <v>14.9863</v>
       </c>
       <c r="M14" s="1">
         <v>1</v>
       </c>
       <c r="N14" s="1">
-        <v>6026.8836</v>
+        <v>6038.942</v>
       </c>
       <c r="O14" s="1">
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>124499.7894</v>
+        <v>124512.3032</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0106</v>
+        <v>-0.0108</v>
       </c>
     </row>
   </sheetData>
@@ -2224,16 +2224,16 @@
         <v>15.3636</v>
       </c>
       <c r="C2" s="1">
-        <v>15.3636</v>
+        <v>15.3329</v>
       </c>
       <c r="D2" s="1">
-        <v>15.3636</v>
+        <v>15.3944</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>650.8891</v>
+        <v>649.5869</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -2271,34 +2271,34 @@
         <v>13.8711</v>
       </c>
       <c r="C3" s="1">
-        <v>13.8711</v>
+        <v>13.8434</v>
       </c>
       <c r="D3" s="1">
-        <v>13.8711</v>
+        <v>13.8989</v>
       </c>
       <c r="E3" s="1">
-        <v>650.8891</v>
+        <v>649.5869</v>
       </c>
       <c r="F3" s="1">
-        <v>720.9234</v>
+        <v>719.4814</v>
       </c>
       <c r="G3" s="1">
         <v>20050</v>
       </c>
       <c r="H3" s="1">
-        <v>9028.548000000001</v>
+        <v>8992.4908</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>9028.548000000001</v>
+        <v>8992.4908</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>15.3636</v>
+        <v>15.3944</v>
       </c>
       <c r="M3" s="1">
         <v>0.5</v>
@@ -2313,7 +2313,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.09710000000000001</v>
+        <v>-0.1008</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -2324,34 +2324,34 @@
         <v>14.1252</v>
       </c>
       <c r="C4" s="1">
-        <v>14.1252</v>
+        <v>14.097</v>
       </c>
       <c r="D4" s="1">
-        <v>14.1252</v>
+        <v>14.1535</v>
       </c>
       <c r="E4" s="1">
-        <v>1371.8125</v>
+        <v>1369.0683</v>
       </c>
       <c r="F4" s="1">
-        <v>707.9546</v>
+        <v>706.539</v>
       </c>
       <c r="G4" s="1">
         <v>30150.25</v>
       </c>
       <c r="H4" s="1">
-        <v>19377.1255</v>
+        <v>19299.7553</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>19377.1255</v>
+        <v>19299.7553</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>14.5793</v>
+        <v>14.6085</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>-10000</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0183</v>
+        <v>0.0162</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -2377,34 +2377,34 @@
         <v>14.1934</v>
       </c>
       <c r="C5" s="1">
-        <v>14.1934</v>
+        <v>14.165</v>
       </c>
       <c r="D5" s="1">
-        <v>14.1934</v>
+        <v>14.2218</v>
       </c>
       <c r="E5" s="1">
-        <v>2079.7671</v>
+        <v>2075.6073</v>
       </c>
       <c r="F5" s="1">
-        <v>704.5528</v>
+        <v>703.1459</v>
       </c>
       <c r="G5" s="1">
         <v>40301.0012</v>
       </c>
       <c r="H5" s="1">
-        <v>29518.9657</v>
+        <v>29400.9771</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>29518.9657</v>
+        <v>29400.9771</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>14.4247</v>
+        <v>14.4536</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -2419,7 +2419,7 @@
         <v>-10000</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0048</v>
+        <v>0.0035</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -2430,49 +2430,49 @@
         <v>14.1176</v>
       </c>
       <c r="C6" s="1">
-        <v>14.1176</v>
+        <v>14.0894</v>
       </c>
       <c r="D6" s="1">
-        <v>14.1176</v>
+        <v>14.1459</v>
       </c>
       <c r="E6" s="1">
-        <v>2784.3199</v>
+        <v>2778.7532</v>
       </c>
       <c r="F6" s="1">
-        <v>708.3357</v>
+        <v>706.9186</v>
       </c>
       <c r="G6" s="1">
         <v>50502.5063</v>
       </c>
       <c r="H6" s="1">
-        <v>39307.9142</v>
+        <v>39150.9647</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>39307.9142</v>
+        <v>39150.9647</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>14.3662</v>
+        <v>14.3949</v>
       </c>
       <c r="M6" s="1">
         <v>0.5</v>
       </c>
       <c r="N6" s="1">
-        <v>935.8952</v>
+        <v>934.0232999999999</v>
       </c>
       <c r="O6" s="1">
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-9064.104799999999</v>
+        <v>-9065.976699999999</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.0053</v>
+        <v>-0.0063</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -2483,34 +2483,34 @@
         <v>15.3311</v>
       </c>
       <c r="C7" s="1">
-        <v>15.3311</v>
+        <v>15.3004</v>
       </c>
       <c r="D7" s="1">
-        <v>15.3311</v>
+        <v>15.3618</v>
       </c>
       <c r="E7" s="1">
-        <v>3492.6556</v>
+        <v>3485.6718</v>
       </c>
       <c r="F7" s="1">
-        <v>470.2055</v>
+        <v>485.1407</v>
       </c>
       <c r="G7" s="1">
         <v>60755.0188</v>
       </c>
       <c r="H7" s="1">
-        <v>53546.2517</v>
+        <v>53332.1723</v>
       </c>
       <c r="I7" s="1">
-        <v>935.8952</v>
+        <v>934.0232999999999</v>
       </c>
       <c r="J7" s="1">
-        <v>54482.1469</v>
+        <v>54266.1956</v>
       </c>
       <c r="K7" s="1">
         <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>14.3158</v>
+        <v>14.3444</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -2522,10 +2522,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-7208.767</v>
+        <v>-7452.6341</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.1049</v>
+        <v>0.1041</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -2536,34 +2536,34 @@
         <v>15.3637</v>
       </c>
       <c r="C8" s="1">
-        <v>15.3637</v>
+        <v>15.333</v>
       </c>
       <c r="D8" s="1">
-        <v>15.3637</v>
+        <v>15.3945</v>
       </c>
       <c r="E8" s="1">
-        <v>3962.861</v>
+        <v>3970.8124</v>
       </c>
       <c r="F8" s="1">
-        <v>662.2483999999999</v>
+        <v>663.5575</v>
       </c>
       <c r="G8" s="1">
         <v>71058.7939</v>
       </c>
       <c r="H8" s="1">
-        <v>60884.2081</v>
+        <v>60884.4673</v>
       </c>
       <c r="I8" s="1">
-        <v>3727.1281</v>
+        <v>3481.3891</v>
       </c>
       <c r="J8" s="1">
-        <v>64611.3362</v>
+        <v>64365.8564</v>
       </c>
       <c r="K8" s="1">
-        <v>57208.767</v>
+        <v>57452.6341</v>
       </c>
       <c r="L8" s="1">
-        <v>14.4362</v>
+        <v>14.4687</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -2575,10 +2575,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-10174.5858</v>
+        <v>-10215.1354</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.002</v>
+        <v>0.0016</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -2589,49 +2589,49 @@
         <v>14.6447</v>
       </c>
       <c r="C9" s="1">
-        <v>14.6447</v>
+        <v>14.6154</v>
       </c>
       <c r="D9" s="1">
-        <v>14.6447</v>
+        <v>14.674</v>
       </c>
       <c r="E9" s="1">
-        <v>4625.1094</v>
+        <v>4634.3699</v>
       </c>
       <c r="F9" s="1">
-        <v>925.423</v>
+        <v>904.0653</v>
       </c>
       <c r="G9" s="1">
         <v>81414.0879</v>
       </c>
       <c r="H9" s="1">
-        <v>67733.34020000001</v>
+        <v>67733.17</v>
       </c>
       <c r="I9" s="1">
-        <v>3552.5423</v>
+        <v>3266.2538</v>
       </c>
       <c r="J9" s="1">
-        <v>71285.88250000001</v>
+        <v>70999.4238</v>
       </c>
       <c r="K9" s="1">
-        <v>67383.3529</v>
+        <v>67667.76949999999</v>
       </c>
       <c r="L9" s="1">
-        <v>14.569</v>
+        <v>14.6013</v>
       </c>
       <c r="M9" s="1">
         <v>1</v>
       </c>
       <c r="N9" s="1">
-        <v>3566.5749</v>
+        <v>3573.7312</v>
       </c>
       <c r="O9" s="1">
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-9985.9674</v>
+        <v>-9692.522499999999</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0446</v>
+        <v>-0.0453</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -2642,34 +2642,34 @@
         <v>15.486</v>
       </c>
       <c r="C10" s="1">
-        <v>15.486</v>
+        <v>15.455</v>
       </c>
       <c r="D10" s="1">
-        <v>15.486</v>
+        <v>15.517</v>
       </c>
       <c r="E10" s="1">
-        <v>5550.5324</v>
+        <v>5538.4352</v>
       </c>
       <c r="F10" s="1">
-        <v>378.7687</v>
+        <v>402.7591</v>
       </c>
       <c r="G10" s="1">
         <v>91821.1583</v>
       </c>
       <c r="H10" s="1">
-        <v>85955.5454</v>
+        <v>85596.5157</v>
       </c>
       <c r="I10" s="1">
-        <v>3566.5749</v>
+        <v>3573.7312</v>
       </c>
       <c r="J10" s="1">
-        <v>89522.1204</v>
+        <v>89170.2469</v>
       </c>
       <c r="K10" s="1">
-        <v>80935.8952</v>
+        <v>80934.0233</v>
       </c>
       <c r="L10" s="1">
-        <v>14.5816</v>
+        <v>14.6132</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -2681,10 +2681,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-5865.6128</v>
+        <v>-6249.6136</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.1013</v>
+        <v>0.1009</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -2695,34 +2695,34 @@
         <v>16.1958</v>
       </c>
       <c r="C11" s="1">
-        <v>16.1957</v>
+        <v>16.1634</v>
       </c>
       <c r="D11" s="1">
-        <v>16.1958</v>
+        <v>16.2282</v>
       </c>
       <c r="E11" s="1">
-        <v>5929.3012</v>
+        <v>5941.1943</v>
       </c>
       <c r="F11" s="1">
-        <v>385.9716</v>
+        <v>386.6986</v>
       </c>
       <c r="G11" s="1">
         <v>102280.2641</v>
       </c>
       <c r="H11" s="1">
-        <v>96029.1833</v>
+        <v>96029.90029999999</v>
       </c>
       <c r="I11" s="1">
-        <v>7700.9621</v>
+        <v>7324.1176</v>
       </c>
       <c r="J11" s="1">
-        <v>103730.1454</v>
+        <v>103354.0179</v>
       </c>
       <c r="K11" s="1">
-        <v>86801.508</v>
+        <v>87183.6369</v>
       </c>
       <c r="L11" s="1">
-        <v>14.6394</v>
+        <v>14.6744</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -2734,10 +2734,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-6251.1193</v>
+        <v>-6275.4218</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0423</v>
+        <v>0.0422</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -2748,49 +2748,49 @@
         <v>16.4264</v>
       </c>
       <c r="C12" s="1">
-        <v>16.4264</v>
+        <v>16.3936</v>
       </c>
       <c r="D12" s="1">
-        <v>16.4264</v>
+        <v>16.4593</v>
       </c>
       <c r="E12" s="1">
-        <v>6315.2728</v>
+        <v>6327.8929</v>
       </c>
       <c r="F12" s="1">
-        <v>551.2144</v>
+        <v>552.3326</v>
       </c>
       <c r="G12" s="1">
         <v>112791.6654</v>
       </c>
       <c r="H12" s="1">
-        <v>103737.1975</v>
+        <v>103736.945</v>
       </c>
       <c r="I12" s="1">
-        <v>11449.8428</v>
+        <v>11048.6958</v>
       </c>
       <c r="J12" s="1">
-        <v>115187.0403</v>
+        <v>114785.6408</v>
       </c>
       <c r="K12" s="1">
-        <v>93052.6274</v>
+        <v>93459.05869999999</v>
       </c>
       <c r="L12" s="1">
-        <v>14.7345</v>
+        <v>14.7694</v>
       </c>
       <c r="M12" s="1">
         <v>0.75</v>
       </c>
       <c r="N12" s="1">
-        <v>4002.2783</v>
+        <v>4010.3062</v>
       </c>
       <c r="O12" s="1">
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-5052.1896</v>
+        <v>-5080.7025</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0128</v>
+        <v>0.0126</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2801,34 +2801,34 @@
         <v>17.107</v>
       </c>
       <c r="C13" s="1">
-        <v>17.107</v>
+        <v>17.0728</v>
       </c>
       <c r="D13" s="1">
-        <v>17.107</v>
+        <v>17.1413</v>
       </c>
       <c r="E13" s="1">
-        <v>6866.4872</v>
+        <v>6880.2255</v>
       </c>
       <c r="F13" s="1">
-        <v>344.3402</v>
+        <v>345.0465</v>
       </c>
       <c r="G13" s="1">
         <v>123355.6237</v>
       </c>
       <c r="H13" s="1">
-        <v>117464.9966</v>
+        <v>117464.7146</v>
       </c>
       <c r="I13" s="1">
-        <v>16397.6532</v>
+        <v>15967.9933</v>
       </c>
       <c r="J13" s="1">
-        <v>133862.6498</v>
+        <v>133432.7079</v>
       </c>
       <c r="K13" s="1">
-        <v>102107.0952</v>
+        <v>102550.0673</v>
       </c>
       <c r="L13" s="1">
-        <v>14.8704</v>
+        <v>14.905</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-5890.6271</v>
+        <v>-5914.5448</v>
       </c>
       <c r="Q13" s="3">
         <v>0.0693</v>
@@ -2854,49 +2854,49 @@
         <v>16.8894</v>
       </c>
       <c r="C14" s="1">
-        <v>16.8893</v>
+        <v>16.8556</v>
       </c>
       <c r="D14" s="1">
-        <v>16.8894</v>
+        <v>16.9232</v>
       </c>
       <c r="E14" s="1">
-        <v>7210.8274</v>
+        <v>7225.272</v>
       </c>
       <c r="F14" s="1">
-        <v>-7210.8274</v>
+        <v>-7225.272</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>121785.8266</v>
+        <v>121786.2947</v>
       </c>
       <c r="I14" s="1">
-        <v>20507.026</v>
+        <v>20053.4485</v>
       </c>
       <c r="J14" s="1">
-        <v>142292.8527</v>
+        <v>141839.7432</v>
       </c>
       <c r="K14" s="1">
-        <v>107997.7224</v>
+        <v>108464.6121</v>
       </c>
       <c r="L14" s="1">
-        <v>14.9772</v>
+        <v>15.0118</v>
       </c>
       <c r="M14" s="1">
         <v>1</v>
       </c>
       <c r="N14" s="1">
-        <v>6179.8385</v>
+        <v>6192.203</v>
       </c>
       <c r="O14" s="1">
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>127965.6651</v>
+        <v>127978.4976</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0109</v>
+        <v>-0.0111</v>
       </c>
     </row>
   </sheetData>
@@ -2992,16 +2992,16 @@
         <v>15.3636</v>
       </c>
       <c r="C2" s="1">
-        <v>15.3636</v>
+        <v>15.3329</v>
       </c>
       <c r="D2" s="1">
-        <v>15.3636</v>
+        <v>15.3944</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>650.8891</v>
+        <v>649.5869</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -3039,34 +3039,34 @@
         <v>13.8711</v>
       </c>
       <c r="C3" s="1">
-        <v>13.8711</v>
+        <v>13.8434</v>
       </c>
       <c r="D3" s="1">
-        <v>13.8711</v>
+        <v>13.8989</v>
       </c>
       <c r="E3" s="1">
-        <v>650.8891</v>
+        <v>649.5869</v>
       </c>
       <c r="F3" s="1">
-        <v>720.9234</v>
+        <v>719.4814</v>
       </c>
       <c r="G3" s="1">
         <v>20100</v>
       </c>
       <c r="H3" s="1">
-        <v>9028.548000000001</v>
+        <v>8992.4908</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>9028.548000000001</v>
+        <v>8992.4908</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>15.3636</v>
+        <v>15.3944</v>
       </c>
       <c r="M3" s="1">
         <v>0.5</v>
@@ -3081,7 +3081,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.09710000000000001</v>
+        <v>-0.1008</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3092,34 +3092,34 @@
         <v>14.1252</v>
       </c>
       <c r="C4" s="1">
-        <v>14.1252</v>
+        <v>14.097</v>
       </c>
       <c r="D4" s="1">
-        <v>14.1252</v>
+        <v>14.1535</v>
       </c>
       <c r="E4" s="1">
-        <v>1371.8125</v>
+        <v>1369.0683</v>
       </c>
       <c r="F4" s="1">
-        <v>707.9546</v>
+        <v>706.539</v>
       </c>
       <c r="G4" s="1">
         <v>30301</v>
       </c>
       <c r="H4" s="1">
-        <v>19377.1255</v>
+        <v>19299.7553</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>19377.1255</v>
+        <v>19299.7553</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>14.5793</v>
+        <v>14.6085</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -3134,7 +3134,7 @@
         <v>-10000</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0183</v>
+        <v>0.0162</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3145,34 +3145,34 @@
         <v>14.1934</v>
       </c>
       <c r="C5" s="1">
-        <v>14.1934</v>
+        <v>14.165</v>
       </c>
       <c r="D5" s="1">
-        <v>14.1934</v>
+        <v>14.2218</v>
       </c>
       <c r="E5" s="1">
-        <v>2079.7671</v>
+        <v>2075.6073</v>
       </c>
       <c r="F5" s="1">
-        <v>704.5528</v>
+        <v>703.1459</v>
       </c>
       <c r="G5" s="1">
         <v>40604.01</v>
       </c>
       <c r="H5" s="1">
-        <v>29518.9657</v>
+        <v>29400.9771</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>29518.9657</v>
+        <v>29400.9771</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>14.4247</v>
+        <v>14.4536</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -3187,7 +3187,7 @@
         <v>-10000</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0048</v>
+        <v>0.0035</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3198,49 +3198,49 @@
         <v>14.1176</v>
       </c>
       <c r="C6" s="1">
-        <v>14.1176</v>
+        <v>14.0894</v>
       </c>
       <c r="D6" s="1">
-        <v>14.1176</v>
+        <v>14.1459</v>
       </c>
       <c r="E6" s="1">
-        <v>2784.3199</v>
+        <v>2778.7532</v>
       </c>
       <c r="F6" s="1">
-        <v>708.3357</v>
+        <v>706.9186</v>
       </c>
       <c r="G6" s="1">
         <v>51010.0501</v>
       </c>
       <c r="H6" s="1">
-        <v>39307.9142</v>
+        <v>39150.9647</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>39307.9142</v>
+        <v>39150.9647</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>14.3662</v>
+        <v>14.3949</v>
       </c>
       <c r="M6" s="1">
         <v>0.5</v>
       </c>
       <c r="N6" s="1">
-        <v>935.8952</v>
+        <v>934.0232999999999</v>
       </c>
       <c r="O6" s="1">
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-9064.104799999999</v>
+        <v>-9065.976699999999</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.0053</v>
+        <v>-0.0063</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3251,34 +3251,34 @@
         <v>15.3311</v>
       </c>
       <c r="C7" s="1">
-        <v>15.3311</v>
+        <v>15.3004</v>
       </c>
       <c r="D7" s="1">
-        <v>15.3311</v>
+        <v>15.3618</v>
       </c>
       <c r="E7" s="1">
-        <v>3492.6556</v>
+        <v>3485.6718</v>
       </c>
       <c r="F7" s="1">
-        <v>520.1126</v>
+        <v>535.148</v>
       </c>
       <c r="G7" s="1">
         <v>61520.1506</v>
       </c>
       <c r="H7" s="1">
-        <v>53546.2517</v>
+        <v>53332.1723</v>
       </c>
       <c r="I7" s="1">
-        <v>935.8952</v>
+        <v>934.0232999999999</v>
       </c>
       <c r="J7" s="1">
-        <v>54482.1469</v>
+        <v>54266.1956</v>
       </c>
       <c r="K7" s="1">
         <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>14.3158</v>
+        <v>14.3444</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -3290,10 +3290,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-7973.8989</v>
+        <v>-8220.8364</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.1049</v>
+        <v>0.1041</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3304,34 +3304,34 @@
         <v>15.3637</v>
       </c>
       <c r="C8" s="1">
-        <v>15.3637</v>
+        <v>15.333</v>
       </c>
       <c r="D8" s="1">
-        <v>15.3637</v>
+        <v>15.3945</v>
       </c>
       <c r="E8" s="1">
-        <v>4012.7682</v>
+        <v>4020.8198</v>
       </c>
       <c r="F8" s="1">
-        <v>682.4127999999999</v>
+        <v>683.7619999999999</v>
       </c>
       <c r="G8" s="1">
         <v>72135.3521</v>
       </c>
       <c r="H8" s="1">
-        <v>61650.9668</v>
+        <v>61651.2293</v>
       </c>
       <c r="I8" s="1">
-        <v>2961.9963</v>
+        <v>2713.1869</v>
       </c>
       <c r="J8" s="1">
-        <v>64612.9632</v>
+        <v>64364.4162</v>
       </c>
       <c r="K8" s="1">
-        <v>57973.8989</v>
+        <v>58220.8364</v>
       </c>
       <c r="L8" s="1">
-        <v>14.4474</v>
+        <v>14.4798</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -3343,10 +3343,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-10484.3853</v>
+        <v>-10526.1741</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.002</v>
+        <v>0.0015</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3357,49 +3357,49 @@
         <v>14.6447</v>
       </c>
       <c r="C9" s="1">
-        <v>14.6447</v>
+        <v>14.6154</v>
       </c>
       <c r="D9" s="1">
-        <v>14.6447</v>
+        <v>14.674</v>
       </c>
       <c r="E9" s="1">
-        <v>4695.181</v>
+        <v>4704.5818</v>
       </c>
       <c r="F9" s="1">
-        <v>852.0223</v>
+        <v>830.5174</v>
       </c>
       <c r="G9" s="1">
         <v>82856.7056</v>
       </c>
       <c r="H9" s="1">
-        <v>68759.51700000001</v>
+        <v>68759.34420000001</v>
       </c>
       <c r="I9" s="1">
-        <v>2477.6111</v>
+        <v>2187.0127</v>
       </c>
       <c r="J9" s="1">
-        <v>71237.128</v>
+        <v>70946.357</v>
       </c>
       <c r="K9" s="1">
-        <v>68458.2841</v>
+        <v>68747.0105</v>
       </c>
       <c r="L9" s="1">
-        <v>14.5805</v>
+        <v>14.6128</v>
       </c>
       <c r="M9" s="1">
         <v>1</v>
       </c>
       <c r="N9" s="1">
-        <v>3611.4914</v>
+        <v>3618.7378</v>
       </c>
       <c r="O9" s="1">
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-8866.119699999999</v>
+        <v>-8568.275</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0452</v>
+        <v>-0.046</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3410,34 +3410,34 @@
         <v>15.486</v>
       </c>
       <c r="C10" s="1">
-        <v>15.486</v>
+        <v>15.455</v>
       </c>
       <c r="D10" s="1">
-        <v>15.486</v>
+        <v>15.517</v>
       </c>
       <c r="E10" s="1">
-        <v>5547.2033</v>
+        <v>5535.0992</v>
       </c>
       <c r="F10" s="1">
-        <v>502.4721</v>
+        <v>526.7107999999999</v>
       </c>
       <c r="G10" s="1">
         <v>93685.2727</v>
       </c>
       <c r="H10" s="1">
-        <v>85903.9902</v>
+        <v>85544.95789999999</v>
       </c>
       <c r="I10" s="1">
-        <v>3611.4914</v>
+        <v>3618.7378</v>
       </c>
       <c r="J10" s="1">
-        <v>89515.48149999999</v>
+        <v>89163.6957</v>
       </c>
       <c r="K10" s="1">
-        <v>80935.8952</v>
+        <v>80934.0233</v>
       </c>
       <c r="L10" s="1">
-        <v>14.5904</v>
+        <v>14.622</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -3449,10 +3449,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-7781.2825</v>
+        <v>-8172.9708</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.1019</v>
+        <v>0.1015</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3463,34 +3463,34 @@
         <v>16.1958</v>
       </c>
       <c r="C11" s="1">
-        <v>16.1957</v>
+        <v>16.1634</v>
       </c>
       <c r="D11" s="1">
-        <v>16.1958</v>
+        <v>16.2282</v>
       </c>
       <c r="E11" s="1">
-        <v>6049.6754</v>
+        <v>6061.8099</v>
       </c>
       <c r="F11" s="1">
-        <v>410.1952</v>
+        <v>410.9696</v>
       </c>
       <c r="G11" s="1">
         <v>104622.1254</v>
       </c>
       <c r="H11" s="1">
-        <v>97978.7273</v>
+        <v>97979.45879999999</v>
       </c>
       <c r="I11" s="1">
-        <v>5830.2089</v>
+        <v>5445.767</v>
       </c>
       <c r="J11" s="1">
-        <v>103808.9361</v>
+        <v>103425.2258</v>
       </c>
       <c r="K11" s="1">
-        <v>88717.1777</v>
+        <v>89106.9941</v>
       </c>
       <c r="L11" s="1">
-        <v>14.6648</v>
+        <v>14.6997</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -3502,10 +3502,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-6643.4391</v>
+        <v>-6669.2974</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0431</v>
+        <v>0.043</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3516,49 +3516,49 @@
         <v>16.4264</v>
       </c>
       <c r="C12" s="1">
-        <v>16.4264</v>
+        <v>16.3936</v>
       </c>
       <c r="D12" s="1">
-        <v>16.4264</v>
+        <v>16.4593</v>
       </c>
       <c r="E12" s="1">
-        <v>6459.8705</v>
+        <v>6472.7796</v>
       </c>
       <c r="F12" s="1">
-        <v>581.7421000000001</v>
+        <v>582.9218</v>
       </c>
       <c r="G12" s="1">
         <v>115668.3467</v>
       </c>
       <c r="H12" s="1">
-        <v>106112.4175</v>
+        <v>106112.1593</v>
       </c>
       <c r="I12" s="1">
-        <v>9186.769700000001</v>
+        <v>8776.4696</v>
       </c>
       <c r="J12" s="1">
-        <v>115299.1873</v>
+        <v>114888.6288</v>
       </c>
       <c r="K12" s="1">
-        <v>95360.6168</v>
+        <v>95776.29150000001</v>
       </c>
       <c r="L12" s="1">
-        <v>14.762</v>
+        <v>14.7968</v>
       </c>
       <c r="M12" s="1">
         <v>0.75</v>
       </c>
       <c r="N12" s="1">
-        <v>4083.5309</v>
+        <v>4091.7217</v>
       </c>
       <c r="O12" s="1">
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-5472.3982</v>
+        <v>-5502.7636</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0131</v>
+        <v>0.0129</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3569,34 +3569,34 @@
         <v>17.107</v>
       </c>
       <c r="C13" s="1">
-        <v>17.107</v>
+        <v>17.0728</v>
       </c>
       <c r="D13" s="1">
-        <v>17.107</v>
+        <v>17.1413</v>
       </c>
       <c r="E13" s="1">
-        <v>7041.6127</v>
+        <v>7055.7014</v>
       </c>
       <c r="F13" s="1">
-        <v>372.0209</v>
+        <v>372.7831</v>
       </c>
       <c r="G13" s="1">
         <v>126825.0301</v>
       </c>
       <c r="H13" s="1">
-        <v>120460.8683</v>
+        <v>120460.5791</v>
       </c>
       <c r="I13" s="1">
-        <v>13714.3715</v>
+        <v>13273.7059</v>
       </c>
       <c r="J13" s="1">
-        <v>134175.2397</v>
+        <v>133734.285</v>
       </c>
       <c r="K13" s="1">
-        <v>104916.546</v>
+        <v>105370.7769</v>
       </c>
       <c r="L13" s="1">
-        <v>14.8995</v>
+        <v>14.9341</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -3608,7 +3608,7 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-6364.1619</v>
+        <v>-6389.9867</v>
       </c>
       <c r="Q13" s="3">
         <v>0.0708</v>
@@ -3622,49 +3622,49 @@
         <v>16.8894</v>
       </c>
       <c r="C14" s="1">
-        <v>16.8893</v>
+        <v>16.8556</v>
       </c>
       <c r="D14" s="1">
-        <v>16.8894</v>
+        <v>16.9232</v>
       </c>
       <c r="E14" s="1">
-        <v>7413.6336</v>
+        <v>7428.4845</v>
       </c>
       <c r="F14" s="1">
-        <v>-7413.6336</v>
+        <v>-7428.4845</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>125211.0821</v>
+        <v>125211.5633</v>
       </c>
       <c r="I14" s="1">
-        <v>17350.2096</v>
+        <v>16883.7192</v>
       </c>
       <c r="J14" s="1">
-        <v>142561.2917</v>
+        <v>142095.2825</v>
       </c>
       <c r="K14" s="1">
-        <v>111280.7078</v>
+        <v>111760.7636</v>
       </c>
       <c r="L14" s="1">
-        <v>15.0103</v>
+        <v>15.0449</v>
       </c>
       <c r="M14" s="1">
         <v>1</v>
       </c>
       <c r="N14" s="1">
-        <v>6337.4514</v>
+        <v>6350.1313</v>
       </c>
       <c r="O14" s="1">
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>131548.5335</v>
+        <v>131561.6946</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0112</v>
+        <v>-0.0114</v>
       </c>
     </row>
   </sheetData>
@@ -3760,16 +3760,16 @@
         <v>15.3636</v>
       </c>
       <c r="C2" s="1">
-        <v>15.3636</v>
+        <v>15.3329</v>
       </c>
       <c r="D2" s="1">
-        <v>15.3636</v>
+        <v>15.3944</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>650.8891</v>
+        <v>649.5869</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -3807,34 +3807,34 @@
         <v>13.8711</v>
       </c>
       <c r="C3" s="1">
-        <v>13.8711</v>
+        <v>13.8434</v>
       </c>
       <c r="D3" s="1">
-        <v>13.8711</v>
+        <v>13.8989</v>
       </c>
       <c r="E3" s="1">
-        <v>650.8891</v>
+        <v>649.5869</v>
       </c>
       <c r="F3" s="1">
-        <v>720.9234</v>
+        <v>719.4814</v>
       </c>
       <c r="G3" s="1">
         <v>20150</v>
       </c>
       <c r="H3" s="1">
-        <v>9028.548000000001</v>
+        <v>8992.4908</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>9028.548000000001</v>
+        <v>8992.4908</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>15.3636</v>
+        <v>15.3944</v>
       </c>
       <c r="M3" s="1">
         <v>0.5</v>
@@ -3849,7 +3849,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.09710000000000001</v>
+        <v>-0.1008</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3860,34 +3860,34 @@
         <v>14.1252</v>
       </c>
       <c r="C4" s="1">
-        <v>14.1252</v>
+        <v>14.097</v>
       </c>
       <c r="D4" s="1">
-        <v>14.1252</v>
+        <v>14.1535</v>
       </c>
       <c r="E4" s="1">
-        <v>1371.8125</v>
+        <v>1369.0683</v>
       </c>
       <c r="F4" s="1">
-        <v>707.9546</v>
+        <v>706.539</v>
       </c>
       <c r="G4" s="1">
         <v>30452.25</v>
       </c>
       <c r="H4" s="1">
-        <v>19377.1255</v>
+        <v>19299.7553</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>19377.1255</v>
+        <v>19299.7553</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>14.5793</v>
+        <v>14.6085</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -3902,7 +3902,7 @@
         <v>-10000</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0183</v>
+        <v>0.0162</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3913,34 +3913,34 @@
         <v>14.1934</v>
       </c>
       <c r="C5" s="1">
-        <v>14.1934</v>
+        <v>14.165</v>
       </c>
       <c r="D5" s="1">
-        <v>14.1934</v>
+        <v>14.2218</v>
       </c>
       <c r="E5" s="1">
-        <v>2079.7671</v>
+        <v>2075.6073</v>
       </c>
       <c r="F5" s="1">
-        <v>704.5528</v>
+        <v>703.1459</v>
       </c>
       <c r="G5" s="1">
         <v>40909.0337</v>
       </c>
       <c r="H5" s="1">
-        <v>29518.9657</v>
+        <v>29400.9771</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>29518.9657</v>
+        <v>29400.9771</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>14.4247</v>
+        <v>14.4536</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -3955,7 +3955,7 @@
         <v>-10000</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0048</v>
+        <v>0.0035</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3966,49 +3966,49 @@
         <v>14.1176</v>
       </c>
       <c r="C6" s="1">
-        <v>14.1176</v>
+        <v>14.0894</v>
       </c>
       <c r="D6" s="1">
-        <v>14.1176</v>
+        <v>14.1459</v>
       </c>
       <c r="E6" s="1">
-        <v>2784.3199</v>
+        <v>2778.7532</v>
       </c>
       <c r="F6" s="1">
-        <v>708.3357</v>
+        <v>706.9186</v>
       </c>
       <c r="G6" s="1">
         <v>51522.6693</v>
       </c>
       <c r="H6" s="1">
-        <v>39307.9142</v>
+        <v>39150.9647</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>39307.9142</v>
+        <v>39150.9647</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>14.3662</v>
+        <v>14.3949</v>
       </c>
       <c r="M6" s="1">
         <v>0.5</v>
       </c>
       <c r="N6" s="1">
-        <v>935.8952</v>
+        <v>934.0232999999999</v>
       </c>
       <c r="O6" s="1">
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-9064.104799999999</v>
+        <v>-9065.976699999999</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.0053</v>
+        <v>-0.0063</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -4019,34 +4019,34 @@
         <v>15.3311</v>
       </c>
       <c r="C7" s="1">
-        <v>15.3311</v>
+        <v>15.3004</v>
       </c>
       <c r="D7" s="1">
-        <v>15.3311</v>
+        <v>15.3618</v>
       </c>
       <c r="E7" s="1">
-        <v>3492.6556</v>
+        <v>3485.6718</v>
       </c>
       <c r="F7" s="1">
-        <v>570.6869</v>
+        <v>585.8237</v>
       </c>
       <c r="G7" s="1">
         <v>62295.5093</v>
       </c>
       <c r="H7" s="1">
-        <v>53546.2517</v>
+        <v>53332.1723</v>
       </c>
       <c r="I7" s="1">
-        <v>935.8952</v>
+        <v>934.0232999999999</v>
       </c>
       <c r="J7" s="1">
-        <v>54482.1469</v>
+        <v>54266.1956</v>
       </c>
       <c r="K7" s="1">
         <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>14.3158</v>
+        <v>14.3444</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -4058,10 +4058,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-8749.257600000001</v>
+        <v>-8999.3066</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.1049</v>
+        <v>0.1041</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -4072,34 +4072,34 @@
         <v>15.3637</v>
       </c>
       <c r="C8" s="1">
-        <v>15.3637</v>
+        <v>15.333</v>
       </c>
       <c r="D8" s="1">
-        <v>15.3637</v>
+        <v>15.3945</v>
       </c>
       <c r="E8" s="1">
-        <v>4063.3424</v>
+        <v>4071.4955</v>
       </c>
       <c r="F8" s="1">
-        <v>703.0837</v>
+        <v>704.4741</v>
       </c>
       <c r="G8" s="1">
         <v>73229.94190000001</v>
       </c>
       <c r="H8" s="1">
-        <v>62427.9743</v>
+        <v>62428.24</v>
       </c>
       <c r="I8" s="1">
-        <v>2186.6376</v>
+        <v>1934.7167</v>
       </c>
       <c r="J8" s="1">
-        <v>64614.6119</v>
+        <v>64362.9567</v>
       </c>
       <c r="K8" s="1">
-        <v>58749.2576</v>
+        <v>58999.3066</v>
       </c>
       <c r="L8" s="1">
-        <v>14.4584</v>
+        <v>14.4908</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -4111,10 +4111,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-10801.9677</v>
+        <v>-10845.027</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0021</v>
+        <v>0.0015</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -4125,49 +4125,49 @@
         <v>14.6447</v>
       </c>
       <c r="C9" s="1">
-        <v>14.6447</v>
+        <v>14.6154</v>
       </c>
       <c r="D9" s="1">
-        <v>14.6447</v>
+        <v>14.674</v>
       </c>
       <c r="E9" s="1">
-        <v>4766.4262</v>
+        <v>4775.9696</v>
       </c>
       <c r="F9" s="1">
-        <v>777.3918</v>
+        <v>755.7373</v>
       </c>
       <c r="G9" s="1">
         <v>84328.39109999999</v>
       </c>
       <c r="H9" s="1">
-        <v>69802.8815</v>
+        <v>69802.7061</v>
       </c>
       <c r="I9" s="1">
-        <v>1384.6699</v>
+        <v>1089.6897</v>
       </c>
       <c r="J9" s="1">
-        <v>71187.5515</v>
+        <v>70892.3958</v>
       </c>
       <c r="K9" s="1">
-        <v>69551.2252</v>
+        <v>69844.3336</v>
       </c>
       <c r="L9" s="1">
-        <v>14.5919</v>
+        <v>14.6241</v>
       </c>
       <c r="M9" s="1">
         <v>1</v>
       </c>
       <c r="N9" s="1">
-        <v>3657.0082</v>
+        <v>3664.3459</v>
       </c>
       <c r="O9" s="1">
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-7727.6617</v>
+        <v>-7425.3437</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0459</v>
+        <v>-0.0467</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -4178,34 +4178,34 @@
         <v>15.486</v>
       </c>
       <c r="C10" s="1">
-        <v>15.486</v>
+        <v>15.455</v>
       </c>
       <c r="D10" s="1">
-        <v>15.486</v>
+        <v>15.517</v>
       </c>
       <c r="E10" s="1">
-        <v>5543.818</v>
+        <v>5531.7069</v>
       </c>
       <c r="F10" s="1">
-        <v>629.0683</v>
+        <v>653.5611</v>
       </c>
       <c r="G10" s="1">
         <v>95593.31690000001</v>
       </c>
       <c r="H10" s="1">
-        <v>85851.5655</v>
+        <v>85492.5307</v>
       </c>
       <c r="I10" s="1">
-        <v>3657.0082</v>
+        <v>3664.3459</v>
       </c>
       <c r="J10" s="1">
-        <v>89508.57369999999</v>
+        <v>89156.87669999999</v>
       </c>
       <c r="K10" s="1">
-        <v>80935.8952</v>
+        <v>80934.0233</v>
       </c>
       <c r="L10" s="1">
-        <v>14.5993</v>
+        <v>14.6309</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -4217,10 +4217,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-9741.751399999999</v>
+        <v>-10141.307</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.1025</v>
+        <v>0.1022</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -4231,34 +4231,34 @@
         <v>16.1958</v>
       </c>
       <c r="C11" s="1">
-        <v>16.1957</v>
+        <v>16.1634</v>
       </c>
       <c r="D11" s="1">
-        <v>16.1958</v>
+        <v>16.2282</v>
       </c>
       <c r="E11" s="1">
-        <v>6172.8863</v>
+        <v>6185.268</v>
       </c>
       <c r="F11" s="1">
-        <v>435.4861</v>
+        <v>436.3102</v>
       </c>
       <c r="G11" s="1">
         <v>107027.2167</v>
       </c>
       <c r="H11" s="1">
-        <v>99974.21430000001</v>
+        <v>99974.9608</v>
       </c>
       <c r="I11" s="1">
-        <v>3915.2568</v>
+        <v>3523.0389</v>
       </c>
       <c r="J11" s="1">
-        <v>103889.4711</v>
+        <v>103497.9997</v>
       </c>
       <c r="K11" s="1">
-        <v>90677.64659999999</v>
+        <v>91075.3303</v>
       </c>
       <c r="L11" s="1">
-        <v>14.6897</v>
+        <v>14.7246</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -4270,10 +4270,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-7053.0459</v>
+        <v>-7080.5288</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.044</v>
+        <v>0.0438</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -4284,49 +4284,49 @@
         <v>16.4264</v>
       </c>
       <c r="C12" s="1">
-        <v>16.4264</v>
+        <v>16.3936</v>
       </c>
       <c r="D12" s="1">
-        <v>16.4264</v>
+        <v>16.4593</v>
       </c>
       <c r="E12" s="1">
-        <v>6608.3724</v>
+        <v>6621.5782</v>
       </c>
       <c r="F12" s="1">
-        <v>613.6985</v>
+        <v>614.9425</v>
       </c>
       <c r="G12" s="1">
         <v>118632.6249</v>
       </c>
       <c r="H12" s="1">
-        <v>108551.7682</v>
+        <v>108551.504</v>
       </c>
       <c r="I12" s="1">
-        <v>6862.2109</v>
+        <v>6442.5101</v>
       </c>
       <c r="J12" s="1">
-        <v>115413.9791</v>
+        <v>114994.0141</v>
       </c>
       <c r="K12" s="1">
-        <v>97730.6925</v>
+        <v>98155.8591</v>
       </c>
       <c r="L12" s="1">
-        <v>14.7889</v>
+        <v>14.8236</v>
       </c>
       <c r="M12" s="1">
         <v>0.75</v>
       </c>
       <c r="N12" s="1">
-        <v>4166.6982</v>
+        <v>4175.0559</v>
       </c>
       <c r="O12" s="1">
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-5914.1585</v>
+        <v>-5946.4668</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0134</v>
+        <v>0.0132</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4337,34 +4337,34 @@
         <v>17.107</v>
       </c>
       <c r="C13" s="1">
-        <v>17.107</v>
+        <v>17.0728</v>
       </c>
       <c r="D13" s="1">
-        <v>17.107</v>
+        <v>17.1413</v>
       </c>
       <c r="E13" s="1">
-        <v>7222.0709</v>
+        <v>7236.5207</v>
       </c>
       <c r="F13" s="1">
-        <v>401.2479</v>
+        <v>402.0691</v>
       </c>
       <c r="G13" s="1">
         <v>130412.1143</v>
       </c>
       <c r="H13" s="1">
-        <v>123547.9664</v>
+        <v>123547.6698</v>
       </c>
       <c r="I13" s="1">
-        <v>10948.0524</v>
+        <v>10496.0434</v>
       </c>
       <c r="J13" s="1">
-        <v>134496.0188</v>
+        <v>134043.7131</v>
       </c>
       <c r="K13" s="1">
-        <v>107811.5492</v>
+        <v>108277.3817</v>
       </c>
       <c r="L13" s="1">
-        <v>14.9281</v>
+        <v>14.9626</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -4376,7 +4376,7 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-6864.1479</v>
+        <v>-6891.9863</v>
       </c>
       <c r="Q13" s="3">
         <v>0.07240000000000001</v>
@@ -4390,49 +4390,49 @@
         <v>16.8894</v>
       </c>
       <c r="C14" s="1">
-        <v>16.8893</v>
+        <v>16.8556</v>
       </c>
       <c r="D14" s="1">
-        <v>16.8894</v>
+        <v>16.9232</v>
       </c>
       <c r="E14" s="1">
-        <v>7623.3188</v>
+        <v>7638.5897</v>
       </c>
       <c r="F14" s="1">
-        <v>-7623.3188</v>
+        <v>-7638.5897</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>128752.5178</v>
+        <v>128753.0126</v>
       </c>
       <c r="I14" s="1">
-        <v>14083.9045</v>
+        <v>13604.0571</v>
       </c>
       <c r="J14" s="1">
-        <v>142836.4223</v>
+        <v>142357.0697</v>
       </c>
       <c r="K14" s="1">
-        <v>114675.6972</v>
+        <v>115169.368</v>
       </c>
       <c r="L14" s="1">
-        <v>15.0428</v>
+        <v>15.0773</v>
       </c>
       <c r="M14" s="1">
         <v>1</v>
       </c>
       <c r="N14" s="1">
-        <v>6499.8638</v>
+        <v>6512.8686</v>
       </c>
       <c r="O14" s="1">
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>135252.3816</v>
+        <v>135265.8812</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0115</v>
+        <v>-0.0117</v>
       </c>
     </row>
   </sheetData>
@@ -4451,9 +4451,9 @@
     <col min="1" max="1" width="10.7109375" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" customWidth="1"/>
     <col min="5" max="5" width="11.7109375" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" customWidth="1"/>
     <col min="7" max="7" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4490,19 +4490,19 @@
         <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>15.216</v>
+        <v>15.2463</v>
       </c>
       <c r="D3" s="1">
-        <v>14.9543</v>
+        <v>14.9863</v>
       </c>
       <c r="E3" s="1">
-        <v>14.9772</v>
+        <v>15.0118</v>
       </c>
       <c r="F3" s="1">
-        <v>15.0103</v>
+        <v>15.0449</v>
       </c>
       <c r="G3" s="1">
-        <v>15.0428</v>
+        <v>15.0773</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
@@ -4513,19 +4513,19 @@
         <v>0.1082</v>
       </c>
       <c r="C4" s="3">
-        <v>0.2046</v>
+        <v>0.1924</v>
       </c>
       <c r="D4" s="3">
-        <v>0.1947</v>
+        <v>0.184</v>
       </c>
       <c r="E4" s="3">
-        <v>0.1978</v>
+        <v>0.1868</v>
       </c>
       <c r="F4" s="3">
-        <v>0.2002</v>
+        <v>0.189</v>
       </c>
       <c r="G4" s="3">
-        <v>0.2026</v>
+        <v>0.1913</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1">
@@ -4536,19 +4536,19 @@
         <v>0.161</v>
       </c>
       <c r="C5" s="3">
-        <v>0.195</v>
+        <v>0.1968</v>
       </c>
       <c r="D5" s="3">
-        <v>0.1902</v>
+        <v>0.1923</v>
       </c>
       <c r="E5" s="3">
-        <v>0.1916</v>
+        <v>0.1936</v>
       </c>
       <c r="F5" s="3">
-        <v>0.1926</v>
+        <v>0.1947</v>
       </c>
       <c r="G5" s="3">
-        <v>0.1937</v>
+        <v>0.1958</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1">
@@ -4559,19 +4559,19 @@
         <v>0.5458</v>
       </c>
       <c r="C6" s="4">
-        <v>0.945</v>
+        <v>0.8742</v>
       </c>
       <c r="D6" s="4">
-        <v>0.9169</v>
+        <v>0.8511</v>
       </c>
       <c r="E6" s="4">
-        <v>0.9265</v>
+        <v>0.8598</v>
       </c>
       <c r="F6" s="4">
-        <v>0.9336</v>
+        <v>0.8663999999999999</v>
       </c>
       <c r="G6" s="4">
-        <v>0.9407</v>
+        <v>0.8731</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1">
@@ -4579,19 +4579,19 @@
         <v>28</v>
       </c>
       <c r="C7" s="3">
-        <v>0.5004999999999999</v>
+        <v>0.4898</v>
       </c>
       <c r="D7" s="3">
-        <v>0.5083</v>
+        <v>0.4988</v>
       </c>
       <c r="E7" s="3">
-        <v>0.5087</v>
+        <v>0.4989</v>
       </c>
       <c r="F7" s="3">
-        <v>0.5085</v>
+        <v>0.4985</v>
       </c>
       <c r="G7" s="3">
-        <v>0.5082</v>
+        <v>0.4982</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1">
@@ -4599,19 +4599,19 @@
         <v>29</v>
       </c>
       <c r="C8" s="1">
-        <v>15692.0583</v>
+        <v>15660.1364</v>
       </c>
       <c r="D8" s="1">
-        <v>14407.929</v>
+        <v>14433.0515</v>
       </c>
       <c r="E8" s="1">
-        <v>14684.5869</v>
+        <v>14710.2636</v>
       </c>
       <c r="F8" s="1">
-        <v>14968.3688</v>
+        <v>14994.614</v>
       </c>
       <c r="G8" s="1">
-        <v>15259.4654</v>
+        <v>15286.2937</v>
       </c>
     </row>
   </sheetData>

--- a/output/1Y_P38_KFSDIV.xlsx
+++ b/output/1Y_P38_KFSDIV.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="31">
   <si>
     <t>NAV</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>Dividend</t>
+  </si>
+  <si>
+    <t>Wealth/Cost</t>
   </si>
 </sst>
 </file>
@@ -4442,13 +4445,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" customWidth="1"/>
     <col min="4" max="4" width="11.7109375" customWidth="1"/>
@@ -4614,6 +4617,26 @@
         <v>17194.7156</v>
       </c>
     </row>
+    <row r="9" spans="1:7" s="4" customFormat="1">
+      <c r="A9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1.1047</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1.3579</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1.3224</v>
+      </c>
+      <c r="F9" s="4">
+        <v>1.2862</v>
+      </c>
+      <c r="G9" s="4">
+        <v>1.2507</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
